--- a/raw_game_pulls/6197661_Play-By-Play for Morgan St. vs Longwood.xlsx
+++ b/raw_game_pulls/6197661_Play-By-Play for Morgan St. vs Longwood.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdona\repos\ncaa_2024\raw_game_pulls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2432B00-E383-4BC9-B38C-449C055F3D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -601,644 +607,644 @@
     <t>00:19</t>
   </si>
   <si>
-    <t>Layup GOOD by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Layup GOOD by LANCERS's Zapala, Szymon</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>LANCERS Steal by Napper, Walyn</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by LANCERS's Napper, Walyn</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Layup GOOD by LANCERS's Christmas, Michael</t>
-  </si>
-  <si>
-    <t>LANCERS Assist by Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by LANCERS's Christmas, Michael</t>
-  </si>
-  <si>
-    <t>LANCERS gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Houston, D'avian</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>LANCERS Defensive REBOUND by Napper, Walyn</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by LANCERS's Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>LANCERS Offensive REBOUND by Napper, Walyn</t>
-  </si>
-  <si>
-    <t>Layup GOOD by LANCERS's Napper, Walyn</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by LANCERS's Christmas, Michael</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Thomas, Will</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Oliver, Christian</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by LANCERS's Houston, D'avian</t>
-  </si>
-  <si>
-    <t>LANCERS Offensive REBOUND by Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>Layup GOOD by LANCERS's Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>LANCERS Defensive REBOUND by Christmas, Michael</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
     <t>Media timeout</t>
   </si>
   <si>
-    <t>Subbing in for LANCERS - Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Oliver, Kiran</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>Layup MISSED by LANCERS's Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Oliver, Kiran</t>
-  </si>
-  <si>
-    <t>Foul on LANCERS's Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>BEARS gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>LANCERS Turnover by Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>BEARS Steal by Topps, Demajion</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Oliver, Christian</t>
-  </si>
-  <si>
-    <t>LANCERS Steal by Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Thomas, Will</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Oliver, Kiran</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>LANCERS takes a 30-second time out.</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Zapala, Szymon</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Napper, Walyn</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Benard, Jaylen</t>
-  </si>
-  <si>
-    <t>Subbing out for LANCERS - Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>Subbing out for LANCERS - Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>Subbing out for LANCERS - Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>LANCERS Turnover by Napper, Walyn</t>
-  </si>
-  <si>
-    <t>BEARS Steal by Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Foul on LANCERS's Benard, Jaylen</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>LANCERS Turnover by Christmas, Michael</t>
-  </si>
-  <si>
-    <t>BEARS Steal by Oliver, Kiran</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>LANCERS Defensive REBOUND by Zapala, Szymon</t>
-  </si>
-  <si>
-    <t>Layup MISSED by LANCERS's Zapala, Szymon</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Thomas, Will</t>
-  </si>
-  <si>
-    <t>Layup MISSED by LANCERS's Christmas, Michael</t>
-  </si>
-  <si>
-    <t>Foul on LANCERS's Napper, Walyn</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Christmas, Michael</t>
-  </si>
-  <si>
-    <t>Subbing out for LANCERS - Zapala, Szymon</t>
-  </si>
-  <si>
-    <t>Subbing out for LANCERS - Benard, Jaylen</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Oliver, Kiran</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by LANCERS's Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Foul on LANCERS's Houston, D'avian</t>
-  </si>
-  <si>
-    <t>Subbing out for LANCERS - Houston, D'avian</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Slam Dunk GOOD by LANCERS's Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>LANCERS Assist by Christmas, Michael</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Slam Dunk GOOD by BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Subbing out for LANCERS - Christmas, Michael</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Topps, Demajion</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by LANCERS's Napper, Walyn</t>
-  </si>
-  <si>
-    <t>LANCERS Offensive REBOUND by Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>Layup GOOD by LANCERS's Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by LANCERS's Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>LANCERS Defensive REBOUND by Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by LANCERS's Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Subbing out for LANCERS - Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Thomas, Will</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>LANCERS Defensive REBOUND by Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by LANCERS's Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>LANCERS Steal by Christmas, Michael</t>
-  </si>
-  <si>
-    <t>BEARS takes a 30-second time out.</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Oliver, Kiran</t>
-  </si>
-  <si>
-    <t>Foul on LANCERS's Zapala, Szymon</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>BEARS Steal by Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Thomas, Will</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by LANCERS's Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>LANCERS Offensive REBOUND by Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Oliver, Kiran</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by LANCERS's Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by LANCERS's Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Nziemi, Johan</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Layup MISSED by LANCERS's Napper, Walyn</t>
-  </si>
-  <si>
-    <t>Subbing out for LANCERS - Napper, Walyn</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Layup GOOD by LANCERS's Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>LANCERS Assist by Napper, Walyn</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>LANCERS Offensive REBOUND by Nziemi, Johan</t>
-  </si>
-  <si>
-    <t>Layup GOOD by LANCERS's Nziemi, Johan</t>
-  </si>
-  <si>
-    <t>Foul on LANCERS's Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>Subbing out for LANCERS - Nziemi, Johan</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Akitoby, Daniel</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>LANCERS Defensive REBOUND by Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>Layup MISSED by LANCERS's Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by LANCERS's Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>LANCERS Defensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>LANCERS Steal by Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>LANCERS Steal by Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>Layup MISSED by LANCERS's Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by LANCERS's Zapala, Szymon</t>
-  </si>
-  <si>
-    <t>Slam Dunk MISSED by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>LANCERS Turnover by Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>BEARS Steal by Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by LANCERS's Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by LANCERS's Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>LANCERS Offensive REBOUND by Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by LANCERS's Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>Foul on LANCERS's Tucker, Elijah</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by LANCERS's Christmas, Michael</t>
-  </si>
-  <si>
-    <t>LANCERS Assist by Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>BEARS takes a 20-second time out.</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>LANCERS Offensive REBOUND by Zapala, Szymon</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by LANCERS's Napper, Walyn</t>
-  </si>
-  <si>
-    <t>LANCERS Block by Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by LANCERS's Granlund, Jesper</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>LANCERS Assist by Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by LANCERS's Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>LANCERS Defensive REBOUND by Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>Layup GOOD by LANCERS's Massie, Johnathan</t>
-  </si>
-  <si>
-    <t>BEARS takes a TIMEOUT</t>
-  </si>
-  <si>
-    <t>Slam Dunk GOOD by LANCERS's Nziemi, Johan</t>
-  </si>
-  <si>
-    <t>LANCERS Assist by Houston, D'avian</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by LANCERS's Nziemi, Johan</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by LANCERS's Richards, Emanuel</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by LANCERS's Nziemi, Johan</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by LANCERS's Nziemi, Johan</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by LANCERS's Napper, Walyn</t>
-  </si>
-  <si>
-    <t>LANCERS Offensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>LANCERS Defensive REBOUND by Houston, D'avian</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Nordberg, Leo</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Edwards, Trent</t>
-  </si>
-  <si>
-    <t>Foul on LANCERS's Nordberg, Leo</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>LANCERS Defensive REBOUND by Benard, Jaylen</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Sunderland, Saxby</t>
-  </si>
-  <si>
-    <t>Layup GOOD by LANCERS's Benard, Jaylen</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Topps, Demajion</t>
-  </si>
-  <si>
-    <t>LANCERS Steal by Nziemi, Johan</t>
-  </si>
-  <si>
-    <t>Foul on LANCERS's Sunderland, Saxby</t>
-  </si>
-  <si>
-    <t>Subbing in for LANCERS - Esmeraldo, Mateo</t>
-  </si>
-  <si>
-    <t>Layup MISSED by LANCERS's Benard, Jaylen</t>
-  </si>
-  <si>
-    <t>BEARS Block by Edwards, Trent</t>
+    <t>Layup GOOD by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Thomas, Will</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Oliver, Christian</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Oliver, Kiran</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Oliver, Kiran</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Thomas, Will</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Oliver, Kiran</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Oliver, Kiran</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Oliver, Kiran</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Slam Dunk GOOD by Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Thomas, Will</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Morgan takes a 30-second time out.</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Oliver, Kiran</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Oliver, Kiran</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Akitoby, Daniel</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Slam Dunk MISSED by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Morgan takes a 20-second time out.</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan takes a TIMEOUT</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Morgan Block by Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Layup GOOD by LWU's Zapala, Szymon</t>
+  </si>
+  <si>
+    <t>LWU Steal by Napper, Walyn</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by LWU's Napper, Walyn</t>
+  </si>
+  <si>
+    <t>Layup GOOD by LWU's Christmas, Michael</t>
+  </si>
+  <si>
+    <t>LWU Assist by Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by LWU's Christmas, Michael</t>
+  </si>
+  <si>
+    <t>LWU gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Houston, D'avian</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>LWU Defensive REBOUND by Napper, Walyn</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by LWU's Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>LWU Offensive REBOUND by Napper, Walyn</t>
+  </si>
+  <si>
+    <t>Layup GOOD by LWU's Napper, Walyn</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by LWU's Christmas, Michael</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by LWU's Houston, D'avian</t>
+  </si>
+  <si>
+    <t>LWU Offensive REBOUND by Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>Layup GOOD by LWU's Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>LWU Defensive REBOUND by Christmas, Michael</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>Layup MISSED by LWU's Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>Foul on LWU's Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>LWU Turnover by Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>LWU Steal by Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>LWU takes a 30-second time out.</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Zapala, Szymon</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Napper, Walyn</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Benard, Jaylen</t>
+  </si>
+  <si>
+    <t>Subbing out for LWU - Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>Subbing out for LWU - Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>Subbing out for LWU - Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>LWU Turnover by Napper, Walyn</t>
+  </si>
+  <si>
+    <t>Foul on LWU's Benard, Jaylen</t>
+  </si>
+  <si>
+    <t>LWU Turnover by Christmas, Michael</t>
+  </si>
+  <si>
+    <t>LWU Defensive REBOUND by Zapala, Szymon</t>
+  </si>
+  <si>
+    <t>Layup MISSED by LWU's Zapala, Szymon</t>
+  </si>
+  <si>
+    <t>Layup MISSED by LWU's Christmas, Michael</t>
+  </si>
+  <si>
+    <t>Foul on LWU's Napper, Walyn</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Christmas, Michael</t>
+  </si>
+  <si>
+    <t>Subbing out for LWU - Zapala, Szymon</t>
+  </si>
+  <si>
+    <t>Subbing out for LWU - Benard, Jaylen</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by LWU's Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>Foul on LWU's Houston, D'avian</t>
+  </si>
+  <si>
+    <t>Subbing out for LWU - Houston, D'avian</t>
+  </si>
+  <si>
+    <t>Slam Dunk GOOD by LWU's Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>LWU Assist by Christmas, Michael</t>
+  </si>
+  <si>
+    <t>Subbing out for LWU - Christmas, Michael</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by LWU's Napper, Walyn</t>
+  </si>
+  <si>
+    <t>LWU Offensive REBOUND by Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>Layup GOOD by LWU's Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by LWU's Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>LWU Defensive REBOUND by Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by LWU's Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>Subbing out for LWU - Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>LWU Defensive REBOUND by Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by LWU's Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>LWU Steal by Christmas, Michael</t>
+  </si>
+  <si>
+    <t>Foul on LWU's Zapala, Szymon</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by LWU's Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>LWU Offensive REBOUND by Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by LWU's Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by LWU's Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Nziemi, Johan</t>
+  </si>
+  <si>
+    <t>Layup MISSED by LWU's Napper, Walyn</t>
+  </si>
+  <si>
+    <t>Subbing out for LWU - Napper, Walyn</t>
+  </si>
+  <si>
+    <t>Layup GOOD by LWU's Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>LWU Assist by Napper, Walyn</t>
+  </si>
+  <si>
+    <t>LWU Offensive REBOUND by Nziemi, Johan</t>
+  </si>
+  <si>
+    <t>Layup GOOD by LWU's Nziemi, Johan</t>
+  </si>
+  <si>
+    <t>Foul on LWU's Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>Subbing out for LWU - Nziemi, Johan</t>
+  </si>
+  <si>
+    <t>LWU Defensive REBOUND by Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>Layup MISSED by LWU's Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by LWU's Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>LWU Defensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>LWU Steal by Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>LWU Steal by Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>Layup MISSED by LWU's Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by LWU's Zapala, Szymon</t>
+  </si>
+  <si>
+    <t>LWU Turnover by Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by LWU's Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by LWU's Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>LWU Offensive REBOUND by Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by LWU's Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>Foul on LWU's Tucker, Elijah</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by LWU's Christmas, Michael</t>
+  </si>
+  <si>
+    <t>LWU Assist by Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>LWU Offensive REBOUND by Zapala, Szymon</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by LWU's Napper, Walyn</t>
+  </si>
+  <si>
+    <t>LWU Block by Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by LWU's Granlund, Jesper</t>
+  </si>
+  <si>
+    <t>LWU Assist by Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by LWU's Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>LWU Defensive REBOUND by Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>Layup GOOD by LWU's Massie, Johnathan</t>
+  </si>
+  <si>
+    <t>Slam Dunk GOOD by LWU's Nziemi, Johan</t>
+  </si>
+  <si>
+    <t>LWU Assist by Houston, D'avian</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by LWU's Nziemi, Johan</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by LWU's Richards, Emanuel</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by LWU's Nziemi, Johan</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by LWU's Nziemi, Johan</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by LWU's Napper, Walyn</t>
+  </si>
+  <si>
+    <t>LWU Offensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>LWU Defensive REBOUND by Houston, D'avian</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Nordberg, Leo</t>
+  </si>
+  <si>
+    <t>Foul on LWU's Nordberg, Leo</t>
+  </si>
+  <si>
+    <t>LWU Defensive REBOUND by Benard, Jaylen</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Sunderland, Saxby</t>
+  </si>
+  <si>
+    <t>Layup GOOD by LWU's Benard, Jaylen</t>
+  </si>
+  <si>
+    <t>LWU Steal by Nziemi, Johan</t>
+  </si>
+  <si>
+    <t>Foul on LWU's Sunderland, Saxby</t>
+  </si>
+  <si>
+    <t>Subbing in for LWU - Esmeraldo, Mateo</t>
+  </si>
+  <si>
+    <t>Layup MISSED by LWU's Benard, Jaylen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,13 +1307,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1345,7 +1359,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1379,6 +1393,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1413,9 +1428,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1588,14 +1604,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1626,10 +1644,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1643,10 +1661,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1660,10 +1678,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1680,7 +1698,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1694,10 +1712,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1711,10 +1729,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1728,10 +1746,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1745,10 +1763,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1762,10 +1780,10 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1779,10 +1797,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1796,10 +1814,10 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1813,10 +1831,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1830,10 +1848,10 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1847,10 +1865,10 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1864,10 +1882,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1881,10 +1899,10 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1898,10 +1916,10 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1915,10 +1933,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1932,10 +1950,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1949,10 +1967,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1966,10 +1984,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1983,10 +2001,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2000,10 +2018,10 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2017,10 +2035,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2034,10 +2052,10 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2051,10 +2069,10 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2068,10 +2086,10 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2085,10 +2103,10 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2102,10 +2120,10 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2119,10 +2137,10 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2136,10 +2154,10 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2153,10 +2171,10 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2170,10 +2188,10 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2187,10 +2205,10 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2204,10 +2222,10 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2221,10 +2239,10 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2238,10 +2256,10 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2255,10 +2273,10 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2272,10 +2290,10 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2289,10 +2307,10 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2306,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2323,10 +2341,10 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2340,10 +2358,10 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2357,10 +2375,10 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2374,10 +2392,10 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2391,10 +2409,10 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2408,10 +2426,10 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2425,10 +2443,10 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2442,10 +2460,10 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2459,10 +2477,10 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2476,10 +2494,10 @@
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2493,10 +2511,10 @@
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2510,10 +2528,10 @@
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2527,10 +2545,10 @@
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2544,10 +2562,10 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2561,10 +2579,10 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2578,10 +2596,10 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2595,10 +2613,10 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2612,10 +2630,10 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2629,10 +2647,10 @@
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2646,10 +2664,10 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2663,10 +2681,10 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2680,10 +2698,10 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2697,10 +2715,10 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2714,10 +2732,10 @@
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2731,10 +2749,10 @@
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2748,10 +2766,10 @@
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2765,10 +2783,10 @@
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2782,10 +2800,10 @@
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2799,10 +2817,10 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2816,10 +2834,10 @@
         <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2833,10 +2851,10 @@
         <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2850,10 +2868,10 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2867,10 +2885,10 @@
         <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2884,10 +2902,10 @@
         <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2901,10 +2919,10 @@
         <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2918,10 +2936,10 @@
         <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2935,10 +2953,10 @@
         <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2952,10 +2970,10 @@
         <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2969,10 +2987,10 @@
         <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2986,10 +3004,10 @@
         <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3003,10 +3021,10 @@
         <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3020,10 +3038,10 @@
         <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3037,10 +3055,10 @@
         <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3054,10 +3072,10 @@
         <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3071,10 +3089,10 @@
         <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3088,10 +3106,10 @@
         <v>19</v>
       </c>
       <c r="E88" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3105,10 +3123,10 @@
         <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3122,10 +3140,10 @@
         <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3139,10 +3157,10 @@
         <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3156,10 +3174,10 @@
         <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3173,10 +3191,10 @@
         <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3190,10 +3208,10 @@
         <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3207,10 +3225,10 @@
         <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3224,10 +3242,10 @@
         <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3241,10 +3259,10 @@
         <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3258,10 +3276,10 @@
         <v>21</v>
       </c>
       <c r="E98" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3275,10 +3293,10 @@
         <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3292,10 +3310,10 @@
         <v>23</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3309,10 +3327,10 @@
         <v>23</v>
       </c>
       <c r="E101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3326,10 +3344,10 @@
         <v>23</v>
       </c>
       <c r="E102" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3343,10 +3361,10 @@
         <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3360,10 +3378,10 @@
         <v>23</v>
       </c>
       <c r="E104" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3377,10 +3395,10 @@
         <v>23</v>
       </c>
       <c r="E105" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3394,10 +3412,10 @@
         <v>23</v>
       </c>
       <c r="E106" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3411,10 +3429,10 @@
         <v>24</v>
       </c>
       <c r="E107" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3428,10 +3446,10 @@
         <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3445,10 +3463,10 @@
         <v>24</v>
       </c>
       <c r="E109" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3462,10 +3480,10 @@
         <v>24</v>
       </c>
       <c r="E110" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3479,10 +3497,10 @@
         <v>24</v>
       </c>
       <c r="E111" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3496,10 +3514,10 @@
         <v>24</v>
       </c>
       <c r="E112" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3513,10 +3531,10 @@
         <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3530,10 +3548,10 @@
         <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3547,10 +3565,10 @@
         <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3564,10 +3582,10 @@
         <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3581,10 +3599,10 @@
         <v>24</v>
       </c>
       <c r="E117" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3598,10 +3616,10 @@
         <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3615,10 +3633,10 @@
         <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3632,10 +3650,10 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3649,10 +3667,10 @@
         <v>27</v>
       </c>
       <c r="E121" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3666,10 +3684,10 @@
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3683,10 +3701,10 @@
         <v>29</v>
       </c>
       <c r="E123" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3700,10 +3718,10 @@
         <v>29</v>
       </c>
       <c r="E124" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3717,10 +3735,10 @@
         <v>29</v>
       </c>
       <c r="E125" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3734,10 +3752,10 @@
         <v>31</v>
       </c>
       <c r="E126" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3751,10 +3769,10 @@
         <v>31</v>
       </c>
       <c r="E127" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3768,10 +3786,10 @@
         <v>31</v>
       </c>
       <c r="E128" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3785,10 +3803,10 @@
         <v>31</v>
       </c>
       <c r="E129" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3802,10 +3820,10 @@
         <v>31</v>
       </c>
       <c r="E130" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3819,10 +3837,10 @@
         <v>31</v>
       </c>
       <c r="E131" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3836,10 +3854,10 @@
         <v>31</v>
       </c>
       <c r="E132" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3853,10 +3871,10 @@
         <v>31</v>
       </c>
       <c r="E133" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3870,10 +3888,10 @@
         <v>31</v>
       </c>
       <c r="E134" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3887,10 +3905,10 @@
         <v>31</v>
       </c>
       <c r="E135" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3904,10 +3922,10 @@
         <v>31</v>
       </c>
       <c r="E136" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3921,10 +3939,10 @@
         <v>31</v>
       </c>
       <c r="E137" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3938,10 +3956,10 @@
         <v>31</v>
       </c>
       <c r="E138" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -3955,10 +3973,10 @@
         <v>31</v>
       </c>
       <c r="E139" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -3972,10 +3990,10 @@
         <v>31</v>
       </c>
       <c r="E140" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -3989,10 +4007,10 @@
         <v>31</v>
       </c>
       <c r="E141" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4006,10 +4024,10 @@
         <v>31</v>
       </c>
       <c r="E142" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4023,10 +4041,10 @@
         <v>31</v>
       </c>
       <c r="E143" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4040,10 +4058,10 @@
         <v>31</v>
       </c>
       <c r="E144" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4057,10 +4075,10 @@
         <v>31</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4074,10 +4092,10 @@
         <v>31</v>
       </c>
       <c r="E146" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4091,10 +4109,10 @@
         <v>31</v>
       </c>
       <c r="E147" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4108,10 +4126,10 @@
         <v>31</v>
       </c>
       <c r="E148" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4125,10 +4143,10 @@
         <v>31</v>
       </c>
       <c r="E149" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4142,10 +4160,10 @@
         <v>31</v>
       </c>
       <c r="E150" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4159,10 +4177,10 @@
         <v>31</v>
       </c>
       <c r="E151" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4176,10 +4194,10 @@
         <v>31</v>
       </c>
       <c r="E152" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4193,10 +4211,10 @@
         <v>31</v>
       </c>
       <c r="E153" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4210,10 +4228,10 @@
         <v>31</v>
       </c>
       <c r="E154" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4227,10 +4245,10 @@
         <v>31</v>
       </c>
       <c r="E155" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4244,10 +4262,10 @@
         <v>31</v>
       </c>
       <c r="E156" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4261,10 +4279,10 @@
         <v>31</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4278,10 +4296,10 @@
         <v>31</v>
       </c>
       <c r="E158" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4295,10 +4313,10 @@
         <v>31</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4312,10 +4330,10 @@
         <v>31</v>
       </c>
       <c r="E160" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4329,10 +4347,10 @@
         <v>31</v>
       </c>
       <c r="E161" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4346,10 +4364,10 @@
         <v>31</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4363,10 +4381,10 @@
         <v>31</v>
       </c>
       <c r="E163" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4380,10 +4398,10 @@
         <v>31</v>
       </c>
       <c r="E164" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4397,10 +4415,10 @@
         <v>31</v>
       </c>
       <c r="E165" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4414,10 +4432,10 @@
         <v>31</v>
       </c>
       <c r="E166" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4431,10 +4449,10 @@
         <v>31</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4448,10 +4466,10 @@
         <v>31</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4465,10 +4483,10 @@
         <v>31</v>
       </c>
       <c r="E169" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4482,10 +4500,10 @@
         <v>31</v>
       </c>
       <c r="E170" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4499,10 +4517,10 @@
         <v>31</v>
       </c>
       <c r="E171" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4516,10 +4534,10 @@
         <v>31</v>
       </c>
       <c r="E172" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4533,10 +4551,10 @@
         <v>33</v>
       </c>
       <c r="E173" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4550,10 +4568,10 @@
         <v>33</v>
       </c>
       <c r="E174" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4567,10 +4585,10 @@
         <v>33</v>
       </c>
       <c r="E175" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4584,10 +4602,10 @@
         <v>33</v>
       </c>
       <c r="E176" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4601,10 +4619,10 @@
         <v>33</v>
       </c>
       <c r="E177" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4618,10 +4636,10 @@
         <v>33</v>
       </c>
       <c r="E178" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4635,10 +4653,10 @@
         <v>33</v>
       </c>
       <c r="E179" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4652,10 +4670,10 @@
         <v>33</v>
       </c>
       <c r="E180" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4669,10 +4687,10 @@
         <v>33</v>
       </c>
       <c r="E181" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4686,10 +4704,10 @@
         <v>33</v>
       </c>
       <c r="E182" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4703,10 +4721,10 @@
         <v>33</v>
       </c>
       <c r="E183" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4720,10 +4738,10 @@
         <v>33</v>
       </c>
       <c r="E184" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4737,10 +4755,10 @@
         <v>33</v>
       </c>
       <c r="E185" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4754,10 +4772,10 @@
         <v>33</v>
       </c>
       <c r="E186" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4771,10 +4789,10 @@
         <v>33</v>
       </c>
       <c r="E187" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4788,10 +4806,10 @@
         <v>33</v>
       </c>
       <c r="E188" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4805,10 +4823,10 @@
         <v>33</v>
       </c>
       <c r="E189" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -4822,10 +4840,10 @@
         <v>33</v>
       </c>
       <c r="E190" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -4839,10 +4857,10 @@
         <v>33</v>
       </c>
       <c r="E191" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -4856,10 +4874,10 @@
         <v>33</v>
       </c>
       <c r="E192" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -4873,10 +4891,10 @@
         <v>33</v>
       </c>
       <c r="E193" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -4890,10 +4908,10 @@
         <v>33</v>
       </c>
       <c r="E194" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -4907,10 +4925,10 @@
         <v>33</v>
       </c>
       <c r="E195" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -4924,10 +4942,10 @@
         <v>33</v>
       </c>
       <c r="E196" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -4941,10 +4959,10 @@
         <v>33</v>
       </c>
       <c r="E197" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -4958,10 +4976,10 @@
         <v>33</v>
       </c>
       <c r="E198" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -4975,10 +4993,10 @@
         <v>33</v>
       </c>
       <c r="E199" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -4992,10 +5010,10 @@
         <v>33</v>
       </c>
       <c r="E200" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5009,10 +5027,10 @@
         <v>33</v>
       </c>
       <c r="E201" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5026,10 +5044,10 @@
         <v>33</v>
       </c>
       <c r="E202" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5043,10 +5061,10 @@
         <v>33</v>
       </c>
       <c r="E203" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5060,10 +5078,10 @@
         <v>35</v>
       </c>
       <c r="E204" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5077,10 +5095,10 @@
         <v>35</v>
       </c>
       <c r="E205" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5094,10 +5112,10 @@
         <v>35</v>
       </c>
       <c r="E206" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5111,10 +5129,10 @@
         <v>35</v>
       </c>
       <c r="E207" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5128,10 +5146,10 @@
         <v>35</v>
       </c>
       <c r="E208" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5145,10 +5163,10 @@
         <v>35</v>
       </c>
       <c r="E209" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5162,10 +5180,10 @@
         <v>35</v>
       </c>
       <c r="E210" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5179,10 +5197,10 @@
         <v>35</v>
       </c>
       <c r="E211" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5196,10 +5214,10 @@
         <v>35</v>
       </c>
       <c r="E212" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5213,10 +5231,10 @@
         <v>35</v>
       </c>
       <c r="E213" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5230,10 +5248,10 @@
         <v>35</v>
       </c>
       <c r="E214" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5247,10 +5265,10 @@
         <v>35</v>
       </c>
       <c r="E215" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5264,10 +5282,10 @@
         <v>35</v>
       </c>
       <c r="E216" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5281,10 +5299,10 @@
         <v>35</v>
       </c>
       <c r="E217" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5298,10 +5316,10 @@
         <v>35</v>
       </c>
       <c r="E218" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5315,10 +5333,10 @@
         <v>35</v>
       </c>
       <c r="E219" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5332,10 +5350,10 @@
         <v>35</v>
       </c>
       <c r="E220" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5349,10 +5367,10 @@
         <v>35</v>
       </c>
       <c r="E221" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -5366,10 +5384,10 @@
         <v>35</v>
       </c>
       <c r="E222" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5383,10 +5401,10 @@
         <v>35</v>
       </c>
       <c r="E223" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5400,10 +5418,10 @@
         <v>35</v>
       </c>
       <c r="E224" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -5417,10 +5435,10 @@
         <v>35</v>
       </c>
       <c r="E225" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -5434,10 +5452,10 @@
         <v>35</v>
       </c>
       <c r="E226" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5451,10 +5469,10 @@
         <v>35</v>
       </c>
       <c r="E227" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5468,10 +5486,10 @@
         <v>35</v>
       </c>
       <c r="E228" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -5485,10 +5503,10 @@
         <v>35</v>
       </c>
       <c r="E229" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5502,10 +5520,10 @@
         <v>35</v>
       </c>
       <c r="E230" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5519,10 +5537,10 @@
         <v>35</v>
       </c>
       <c r="E231" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5536,10 +5554,10 @@
         <v>35</v>
       </c>
       <c r="E232" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5553,10 +5571,10 @@
         <v>35</v>
       </c>
       <c r="E233" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5570,10 +5588,10 @@
         <v>35</v>
       </c>
       <c r="E234" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5587,10 +5605,10 @@
         <v>35</v>
       </c>
       <c r="E235" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5604,10 +5622,10 @@
         <v>35</v>
       </c>
       <c r="E236" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5621,10 +5639,10 @@
         <v>35</v>
       </c>
       <c r="E237" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -5638,10 +5656,10 @@
         <v>35</v>
       </c>
       <c r="E238" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5655,10 +5673,10 @@
         <v>35</v>
       </c>
       <c r="E239" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -5672,10 +5690,10 @@
         <v>35</v>
       </c>
       <c r="E240" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5689,10 +5707,10 @@
         <v>35</v>
       </c>
       <c r="E241" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -5706,10 +5724,10 @@
         <v>35</v>
       </c>
       <c r="E242" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -5723,10 +5741,10 @@
         <v>35</v>
       </c>
       <c r="E243" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -5740,10 +5758,10 @@
         <v>35</v>
       </c>
       <c r="E244" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -5757,10 +5775,10 @@
         <v>35</v>
       </c>
       <c r="E245" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -5774,10 +5792,10 @@
         <v>37</v>
       </c>
       <c r="E246" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -5791,10 +5809,10 @@
         <v>37</v>
       </c>
       <c r="E247" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -5808,10 +5826,10 @@
         <v>38</v>
       </c>
       <c r="E248" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -5825,10 +5843,10 @@
         <v>38</v>
       </c>
       <c r="E249" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -5842,10 +5860,10 @@
         <v>38</v>
       </c>
       <c r="E250" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -5859,10 +5877,10 @@
         <v>38</v>
       </c>
       <c r="E251" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -5876,10 +5894,10 @@
         <v>38</v>
       </c>
       <c r="E252" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -5893,10 +5911,10 @@
         <v>38</v>
       </c>
       <c r="E253" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -5910,10 +5928,10 @@
         <v>38</v>
       </c>
       <c r="E254" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -5927,10 +5945,10 @@
         <v>38</v>
       </c>
       <c r="E255" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -5944,10 +5962,10 @@
         <v>38</v>
       </c>
       <c r="E256" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
@@ -5961,10 +5979,10 @@
         <v>38</v>
       </c>
       <c r="E257" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2</v>
       </c>
@@ -5978,10 +5996,10 @@
         <v>38</v>
       </c>
       <c r="E258" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -5995,10 +6013,10 @@
         <v>38</v>
       </c>
       <c r="E259" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -6012,10 +6030,10 @@
         <v>38</v>
       </c>
       <c r="E260" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2</v>
       </c>
@@ -6029,10 +6047,10 @@
         <v>38</v>
       </c>
       <c r="E261" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2</v>
       </c>
@@ -6046,10 +6064,10 @@
         <v>38</v>
       </c>
       <c r="E262" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2</v>
       </c>
@@ -6063,10 +6081,10 @@
         <v>38</v>
       </c>
       <c r="E263" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2</v>
       </c>
@@ -6080,10 +6098,10 @@
         <v>38</v>
       </c>
       <c r="E264" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2</v>
       </c>
@@ -6097,10 +6115,10 @@
         <v>38</v>
       </c>
       <c r="E265" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2</v>
       </c>
@@ -6114,10 +6132,10 @@
         <v>38</v>
       </c>
       <c r="E266" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
@@ -6131,10 +6149,10 @@
         <v>38</v>
       </c>
       <c r="E267" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2</v>
       </c>
@@ -6148,10 +6166,10 @@
         <v>38</v>
       </c>
       <c r="E268" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2</v>
       </c>
@@ -6165,10 +6183,10 @@
         <v>38</v>
       </c>
       <c r="E269" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2</v>
       </c>
@@ -6182,10 +6200,10 @@
         <v>38</v>
       </c>
       <c r="E270" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
@@ -6199,10 +6217,10 @@
         <v>38</v>
       </c>
       <c r="E271" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2</v>
       </c>
@@ -6216,10 +6234,10 @@
         <v>38</v>
       </c>
       <c r="E272" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2</v>
       </c>
@@ -6233,10 +6251,10 @@
         <v>38</v>
       </c>
       <c r="E273" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2</v>
       </c>
@@ -6250,10 +6268,10 @@
         <v>38</v>
       </c>
       <c r="E274" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2</v>
       </c>
@@ -6267,10 +6285,10 @@
         <v>38</v>
       </c>
       <c r="E275" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2</v>
       </c>
@@ -6284,10 +6302,10 @@
         <v>38</v>
       </c>
       <c r="E276" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -6301,10 +6319,10 @@
         <v>38</v>
       </c>
       <c r="E277" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6318,10 +6336,10 @@
         <v>38</v>
       </c>
       <c r="E278" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -6335,10 +6353,10 @@
         <v>38</v>
       </c>
       <c r="E279" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2</v>
       </c>
@@ -6352,10 +6370,10 @@
         <v>38</v>
       </c>
       <c r="E280" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2</v>
       </c>
@@ -6369,10 +6387,10 @@
         <v>38</v>
       </c>
       <c r="E281" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2</v>
       </c>
@@ -6386,10 +6404,10 @@
         <v>38</v>
       </c>
       <c r="E282" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
@@ -6403,10 +6421,10 @@
         <v>38</v>
       </c>
       <c r="E283" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -6420,10 +6438,10 @@
         <v>38</v>
       </c>
       <c r="E284" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2</v>
       </c>
@@ -6437,10 +6455,10 @@
         <v>38</v>
       </c>
       <c r="E285" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2</v>
       </c>
@@ -6454,10 +6472,10 @@
         <v>38</v>
       </c>
       <c r="E286" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -6471,10 +6489,10 @@
         <v>38</v>
       </c>
       <c r="E287" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2</v>
       </c>
@@ -6488,10 +6506,10 @@
         <v>38</v>
       </c>
       <c r="E288" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
@@ -6505,10 +6523,10 @@
         <v>38</v>
       </c>
       <c r="E289" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2</v>
       </c>
@@ -6522,10 +6540,10 @@
         <v>38</v>
       </c>
       <c r="E290" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6539,10 +6557,10 @@
         <v>38</v>
       </c>
       <c r="E291" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
@@ -6556,10 +6574,10 @@
         <v>38</v>
       </c>
       <c r="E292" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2</v>
       </c>
@@ -6573,10 +6591,10 @@
         <v>38</v>
       </c>
       <c r="E293" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
@@ -6590,10 +6608,10 @@
         <v>38</v>
       </c>
       <c r="E294" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2</v>
       </c>
@@ -6607,10 +6625,10 @@
         <v>38</v>
       </c>
       <c r="E295" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -6624,10 +6642,10 @@
         <v>41</v>
       </c>
       <c r="E296" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2</v>
       </c>
@@ -6641,10 +6659,10 @@
         <v>41</v>
       </c>
       <c r="E297" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2</v>
       </c>
@@ -6658,10 +6676,10 @@
         <v>41</v>
       </c>
       <c r="E298" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6675,10 +6693,10 @@
         <v>41</v>
       </c>
       <c r="E299" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6692,10 +6710,10 @@
         <v>43</v>
       </c>
       <c r="E300" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6709,10 +6727,10 @@
         <v>43</v>
       </c>
       <c r="E301" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2</v>
       </c>
@@ -6726,10 +6744,10 @@
         <v>43</v>
       </c>
       <c r="E302" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -6743,10 +6761,10 @@
         <v>43</v>
       </c>
       <c r="E303" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6763,7 +6781,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2</v>
       </c>
@@ -6777,10 +6795,10 @@
         <v>43</v>
       </c>
       <c r="E305" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2</v>
       </c>
@@ -6794,10 +6812,10 @@
         <v>43</v>
       </c>
       <c r="E306" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -6811,10 +6829,10 @@
         <v>43</v>
       </c>
       <c r="E307" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2</v>
       </c>
@@ -6828,10 +6846,10 @@
         <v>43</v>
       </c>
       <c r="E308" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -6845,10 +6863,10 @@
         <v>43</v>
       </c>
       <c r="E309" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2</v>
       </c>
@@ -6862,10 +6880,10 @@
         <v>43</v>
       </c>
       <c r="E310" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -6879,10 +6897,10 @@
         <v>43</v>
       </c>
       <c r="E311" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2</v>
       </c>
@@ -6896,10 +6914,10 @@
         <v>43</v>
       </c>
       <c r="E312" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -6913,10 +6931,10 @@
         <v>43</v>
       </c>
       <c r="E313" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -6930,10 +6948,10 @@
         <v>43</v>
       </c>
       <c r="E314" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2</v>
       </c>
@@ -6947,10 +6965,10 @@
         <v>43</v>
       </c>
       <c r="E315" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -6964,10 +6982,10 @@
         <v>43</v>
       </c>
       <c r="E316" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -6981,10 +6999,10 @@
         <v>43</v>
       </c>
       <c r="E317" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2</v>
       </c>
@@ -6998,10 +7016,10 @@
         <v>43</v>
       </c>
       <c r="E318" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7015,10 +7033,10 @@
         <v>43</v>
       </c>
       <c r="E319" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7032,10 +7050,10 @@
         <v>43</v>
       </c>
       <c r="E320" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7049,10 +7067,10 @@
         <v>43</v>
       </c>
       <c r="E321" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7066,10 +7084,10 @@
         <v>43</v>
       </c>
       <c r="E322" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7083,10 +7101,10 @@
         <v>43</v>
       </c>
       <c r="E323" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7100,10 +7118,10 @@
         <v>43</v>
       </c>
       <c r="E324" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7117,10 +7135,10 @@
         <v>43</v>
       </c>
       <c r="E325" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7134,10 +7152,10 @@
         <v>43</v>
       </c>
       <c r="E326" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7151,10 +7169,10 @@
         <v>43</v>
       </c>
       <c r="E327" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7168,10 +7186,10 @@
         <v>43</v>
       </c>
       <c r="E328" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7185,10 +7203,10 @@
         <v>43</v>
       </c>
       <c r="E329" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7202,10 +7220,10 @@
         <v>43</v>
       </c>
       <c r="E330" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7219,10 +7237,10 @@
         <v>43</v>
       </c>
       <c r="E331" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7236,10 +7254,10 @@
         <v>43</v>
       </c>
       <c r="E332" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7253,10 +7271,10 @@
         <v>43</v>
       </c>
       <c r="E333" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7270,10 +7288,10 @@
         <v>43</v>
       </c>
       <c r="E334" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7287,10 +7305,10 @@
         <v>43</v>
       </c>
       <c r="E335" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7304,10 +7322,10 @@
         <v>43</v>
       </c>
       <c r="E336" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7321,10 +7339,10 @@
         <v>43</v>
       </c>
       <c r="E337" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7338,10 +7356,10 @@
         <v>43</v>
       </c>
       <c r="E338" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7355,10 +7373,10 @@
         <v>43</v>
       </c>
       <c r="E339" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7372,10 +7390,10 @@
         <v>43</v>
       </c>
       <c r="E340" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7389,10 +7407,10 @@
         <v>43</v>
       </c>
       <c r="E341" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7406,10 +7424,10 @@
         <v>43</v>
       </c>
       <c r="E342" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7423,10 +7441,10 @@
         <v>43</v>
       </c>
       <c r="E343" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7440,10 +7458,10 @@
         <v>43</v>
       </c>
       <c r="E344" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7457,10 +7475,10 @@
         <v>43</v>
       </c>
       <c r="E345" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7474,10 +7492,10 @@
         <v>43</v>
       </c>
       <c r="E346" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7491,10 +7509,10 @@
         <v>43</v>
       </c>
       <c r="E347" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7508,10 +7526,10 @@
         <v>43</v>
       </c>
       <c r="E348" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7525,10 +7543,10 @@
         <v>43</v>
       </c>
       <c r="E349" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7542,10 +7560,10 @@
         <v>43</v>
       </c>
       <c r="E350" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7559,10 +7577,10 @@
         <v>43</v>
       </c>
       <c r="E351" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7576,10 +7594,10 @@
         <v>43</v>
       </c>
       <c r="E352" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7593,10 +7611,10 @@
         <v>43</v>
       </c>
       <c r="E353" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7610,10 +7628,10 @@
         <v>43</v>
       </c>
       <c r="E354" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7627,10 +7645,10 @@
         <v>43</v>
       </c>
       <c r="E355" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7644,10 +7662,10 @@
         <v>43</v>
       </c>
       <c r="E356" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7661,10 +7679,10 @@
         <v>43</v>
       </c>
       <c r="E357" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7678,10 +7696,10 @@
         <v>43</v>
       </c>
       <c r="E358" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7695,10 +7713,10 @@
         <v>43</v>
       </c>
       <c r="E359" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7712,10 +7730,10 @@
         <v>43</v>
       </c>
       <c r="E360" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7729,10 +7747,10 @@
         <v>43</v>
       </c>
       <c r="E361" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7746,10 +7764,10 @@
         <v>43</v>
       </c>
       <c r="E362" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7763,10 +7781,10 @@
         <v>43</v>
       </c>
       <c r="E363" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
@@ -7780,10 +7798,10 @@
         <v>43</v>
       </c>
       <c r="E364" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2</v>
       </c>
@@ -7797,10 +7815,10 @@
         <v>43</v>
       </c>
       <c r="E365" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2</v>
       </c>
@@ -7814,10 +7832,10 @@
         <v>43</v>
       </c>
       <c r="E366" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2</v>
       </c>
@@ -7831,10 +7849,10 @@
         <v>43</v>
       </c>
       <c r="E367" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
@@ -7848,10 +7866,10 @@
         <v>43</v>
       </c>
       <c r="E368" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2</v>
       </c>
@@ -7865,10 +7883,10 @@
         <v>43</v>
       </c>
       <c r="E369" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2</v>
       </c>
@@ -7882,10 +7900,10 @@
         <v>43</v>
       </c>
       <c r="E370" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2</v>
       </c>
@@ -7899,10 +7917,10 @@
         <v>43</v>
       </c>
       <c r="E371" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2</v>
       </c>
@@ -7916,10 +7934,10 @@
         <v>43</v>
       </c>
       <c r="E372" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2</v>
       </c>
@@ -7933,10 +7951,10 @@
         <v>43</v>
       </c>
       <c r="E373" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2</v>
       </c>
@@ -7950,10 +7968,10 @@
         <v>43</v>
       </c>
       <c r="E374" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -7967,10 +7985,10 @@
         <v>43</v>
       </c>
       <c r="E375" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -7984,10 +8002,10 @@
         <v>43</v>
       </c>
       <c r="E376" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8001,10 +8019,10 @@
         <v>43</v>
       </c>
       <c r="E377" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -8018,10 +8036,10 @@
         <v>43</v>
       </c>
       <c r="E378" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -8035,10 +8053,10 @@
         <v>43</v>
       </c>
       <c r="E379" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -8052,10 +8070,10 @@
         <v>43</v>
       </c>
       <c r="E380" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8069,10 +8087,10 @@
         <v>43</v>
       </c>
       <c r="E381" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -8086,10 +8104,10 @@
         <v>43</v>
       </c>
       <c r="E382" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -8103,10 +8121,10 @@
         <v>43</v>
       </c>
       <c r="E383" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2</v>
       </c>
@@ -8120,10 +8138,10 @@
         <v>43</v>
       </c>
       <c r="E384" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8137,10 +8155,10 @@
         <v>43</v>
       </c>
       <c r="E385" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -8154,10 +8172,10 @@
         <v>43</v>
       </c>
       <c r="E386" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2</v>
       </c>
@@ -8171,10 +8189,10 @@
         <v>43</v>
       </c>
       <c r="E387" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8188,10 +8206,10 @@
         <v>43</v>
       </c>
       <c r="E388" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8205,10 +8223,10 @@
         <v>43</v>
       </c>
       <c r="E389" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8222,10 +8240,10 @@
         <v>43</v>
       </c>
       <c r="E390" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8239,10 +8257,10 @@
         <v>43</v>
       </c>
       <c r="E391" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8256,10 +8274,10 @@
         <v>43</v>
       </c>
       <c r="E392" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8273,10 +8291,10 @@
         <v>43</v>
       </c>
       <c r="E393" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8290,10 +8308,10 @@
         <v>43</v>
       </c>
       <c r="E394" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8307,10 +8325,10 @@
         <v>43</v>
       </c>
       <c r="E395" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8324,10 +8342,10 @@
         <v>43</v>
       </c>
       <c r="E396" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2</v>
       </c>
@@ -8341,10 +8359,10 @@
         <v>43</v>
       </c>
       <c r="E397" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2</v>
       </c>
@@ -8358,10 +8376,10 @@
         <v>43</v>
       </c>
       <c r="E398" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8375,10 +8393,10 @@
         <v>43</v>
       </c>
       <c r="E399" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8392,10 +8410,10 @@
         <v>43</v>
       </c>
       <c r="E400" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8409,10 +8427,10 @@
         <v>43</v>
       </c>
       <c r="E401" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8426,10 +8444,10 @@
         <v>43</v>
       </c>
       <c r="E402" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8443,10 +8461,10 @@
         <v>43</v>
       </c>
       <c r="E403" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8460,10 +8478,10 @@
         <v>43</v>
       </c>
       <c r="E404" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2</v>
       </c>
@@ -8477,10 +8495,10 @@
         <v>43</v>
       </c>
       <c r="E405" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2</v>
       </c>
@@ -8494,10 +8512,10 @@
         <v>43</v>
       </c>
       <c r="E406" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2</v>
       </c>
@@ -8511,10 +8529,10 @@
         <v>43</v>
       </c>
       <c r="E407" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8528,10 +8546,10 @@
         <v>43</v>
       </c>
       <c r="E408" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8545,10 +8563,10 @@
         <v>43</v>
       </c>
       <c r="E409" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2</v>
       </c>
@@ -8562,10 +8580,10 @@
         <v>43</v>
       </c>
       <c r="E410" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8579,10 +8597,10 @@
         <v>45</v>
       </c>
       <c r="E411" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8596,10 +8614,10 @@
         <v>45</v>
       </c>
       <c r="E412" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8613,10 +8631,10 @@
         <v>45</v>
       </c>
       <c r="E413" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8630,10 +8648,10 @@
         <v>45</v>
       </c>
       <c r="E414" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2</v>
       </c>
@@ -8647,10 +8665,10 @@
         <v>45</v>
       </c>
       <c r="E415" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -8664,10 +8682,10 @@
         <v>45</v>
       </c>
       <c r="E416" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8681,10 +8699,10 @@
         <v>45</v>
       </c>
       <c r="E417" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8698,10 +8716,10 @@
         <v>45</v>
       </c>
       <c r="E418" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8715,10 +8733,10 @@
         <v>45</v>
       </c>
       <c r="E419" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2</v>
       </c>
@@ -8732,10 +8750,10 @@
         <v>45</v>
       </c>
       <c r="E420" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8749,10 +8767,10 @@
         <v>45</v>
       </c>
       <c r="E421" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2</v>
       </c>
@@ -8766,10 +8784,10 @@
         <v>45</v>
       </c>
       <c r="E422" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -8783,10 +8801,10 @@
         <v>45</v>
       </c>
       <c r="E423" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2</v>
       </c>
@@ -8800,10 +8818,10 @@
         <v>45</v>
       </c>
       <c r="E424" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
@@ -8817,10 +8835,10 @@
         <v>45</v>
       </c>
       <c r="E425" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2</v>
       </c>
@@ -8834,10 +8852,10 @@
         <v>45</v>
       </c>
       <c r="E426" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -8851,10 +8869,10 @@
         <v>45</v>
       </c>
       <c r="E427" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2</v>
       </c>
@@ -8868,10 +8886,10 @@
         <v>47</v>
       </c>
       <c r="E428" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2</v>
       </c>
@@ -8885,10 +8903,10 @@
         <v>47</v>
       </c>
       <c r="E429" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2</v>
       </c>
@@ -8902,10 +8920,10 @@
         <v>47</v>
       </c>
       <c r="E430" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2</v>
       </c>
@@ -8919,10 +8937,10 @@
         <v>47</v>
       </c>
       <c r="E431" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
@@ -8936,10 +8954,10 @@
         <v>47</v>
       </c>
       <c r="E432" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -8953,10 +8971,10 @@
         <v>47</v>
       </c>
       <c r="E433" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -8970,10 +8988,10 @@
         <v>47</v>
       </c>
       <c r="E434" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -8987,10 +9005,10 @@
         <v>47</v>
       </c>
       <c r="E435" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -9004,10 +9022,10 @@
         <v>47</v>
       </c>
       <c r="E436" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2</v>
       </c>
@@ -9021,10 +9039,10 @@
         <v>47</v>
       </c>
       <c r="E437" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2</v>
       </c>
@@ -9038,10 +9056,10 @@
         <v>47</v>
       </c>
       <c r="E438" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2</v>
       </c>
@@ -9055,10 +9073,10 @@
         <v>47</v>
       </c>
       <c r="E439" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2</v>
       </c>
@@ -9072,10 +9090,10 @@
         <v>47</v>
       </c>
       <c r="E440" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2</v>
       </c>
@@ -9089,10 +9107,10 @@
         <v>47</v>
       </c>
       <c r="E441" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2</v>
       </c>
@@ -9106,10 +9124,10 @@
         <v>47</v>
       </c>
       <c r="E442" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2</v>
       </c>
@@ -9123,10 +9141,10 @@
         <v>47</v>
       </c>
       <c r="E443" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2</v>
       </c>
@@ -9140,10 +9158,10 @@
         <v>47</v>
       </c>
       <c r="E444" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2</v>
       </c>
@@ -9157,10 +9175,10 @@
         <v>47</v>
       </c>
       <c r="E445" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2</v>
       </c>
@@ -9174,10 +9192,10 @@
         <v>49</v>
       </c>
       <c r="E446" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
@@ -9191,10 +9209,10 @@
         <v>49</v>
       </c>
       <c r="E447" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2</v>
       </c>
@@ -9208,10 +9226,10 @@
         <v>49</v>
       </c>
       <c r="E448" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2</v>
       </c>
@@ -9225,10 +9243,10 @@
         <v>49</v>
       </c>
       <c r="E449" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2</v>
       </c>
@@ -9242,10 +9260,10 @@
         <v>49</v>
       </c>
       <c r="E450" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2</v>
       </c>
@@ -9259,10 +9277,10 @@
         <v>49</v>
       </c>
       <c r="E451" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2</v>
       </c>
@@ -9276,10 +9294,10 @@
         <v>49</v>
       </c>
       <c r="E452" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2</v>
       </c>
@@ -9293,10 +9311,10 @@
         <v>49</v>
       </c>
       <c r="E453" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2</v>
       </c>
@@ -9310,10 +9328,10 @@
         <v>49</v>
       </c>
       <c r="E454" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2</v>
       </c>
@@ -9327,10 +9345,10 @@
         <v>49</v>
       </c>
       <c r="E455" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2</v>
       </c>
@@ -9344,10 +9362,10 @@
         <v>49</v>
       </c>
       <c r="E456" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -9361,10 +9379,10 @@
         <v>49</v>
       </c>
       <c r="E457" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2</v>
       </c>
@@ -9378,10 +9396,10 @@
         <v>49</v>
       </c>
       <c r="E458" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2</v>
       </c>
@@ -9395,10 +9413,10 @@
         <v>49</v>
       </c>
       <c r="E459" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2</v>
       </c>
@@ -9412,10 +9430,10 @@
         <v>49</v>
       </c>
       <c r="E460" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2</v>
       </c>
@@ -9429,10 +9447,10 @@
         <v>49</v>
       </c>
       <c r="E461" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2</v>
       </c>
@@ -9446,10 +9464,10 @@
         <v>49</v>
       </c>
       <c r="E462" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2</v>
       </c>
@@ -9463,10 +9481,10 @@
         <v>49</v>
       </c>
       <c r="E463" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2</v>
       </c>
@@ -9480,10 +9498,10 @@
         <v>51</v>
       </c>
       <c r="E464" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2</v>
       </c>
@@ -9497,10 +9515,10 @@
         <v>51</v>
       </c>
       <c r="E465" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2</v>
       </c>
@@ -9514,10 +9532,10 @@
         <v>51</v>
       </c>
       <c r="E466" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2</v>
       </c>
@@ -9531,10 +9549,10 @@
         <v>51</v>
       </c>
       <c r="E467" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -9548,10 +9566,10 @@
         <v>51</v>
       </c>
       <c r="E468" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2</v>
       </c>
@@ -9565,10 +9583,10 @@
         <v>51</v>
       </c>
       <c r="E469" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2</v>
       </c>
@@ -9582,10 +9600,10 @@
         <v>51</v>
       </c>
       <c r="E470" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2</v>
       </c>
@@ -9599,10 +9617,10 @@
         <v>51</v>
       </c>
       <c r="E471" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2</v>
       </c>
@@ -9616,10 +9634,10 @@
         <v>51</v>
       </c>
       <c r="E472" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2</v>
       </c>
@@ -9633,10 +9651,10 @@
         <v>51</v>
       </c>
       <c r="E473" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2</v>
       </c>
@@ -9653,7 +9671,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2</v>
       </c>
@@ -9667,10 +9685,10 @@
         <v>51</v>
       </c>
       <c r="E475" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2</v>
       </c>
@@ -9684,10 +9702,10 @@
         <v>51</v>
       </c>
       <c r="E476" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2</v>
       </c>
@@ -9701,10 +9719,10 @@
         <v>51</v>
       </c>
       <c r="E477" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2</v>
       </c>
@@ -9718,10 +9736,10 @@
         <v>53</v>
       </c>
       <c r="E478" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2</v>
       </c>
@@ -9735,10 +9753,10 @@
         <v>53</v>
       </c>
       <c r="E479" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2</v>
       </c>
@@ -9752,10 +9770,10 @@
         <v>53</v>
       </c>
       <c r="E480" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2</v>
       </c>
@@ -9769,10 +9787,10 @@
         <v>53</v>
       </c>
       <c r="E481" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2</v>
       </c>
@@ -9786,10 +9804,10 @@
         <v>53</v>
       </c>
       <c r="E482" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2</v>
       </c>
@@ -9803,10 +9821,10 @@
         <v>53</v>
       </c>
       <c r="E483" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2</v>
       </c>
@@ -9820,10 +9838,10 @@
         <v>53</v>
       </c>
       <c r="E484" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2</v>
       </c>
@@ -9837,10 +9855,10 @@
         <v>53</v>
       </c>
       <c r="E485" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2</v>
       </c>
@@ -9854,10 +9872,10 @@
         <v>53</v>
       </c>
       <c r="E486" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2</v>
       </c>
@@ -9871,10 +9889,10 @@
         <v>53</v>
       </c>
       <c r="E487" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2</v>
       </c>
@@ -9888,10 +9906,10 @@
         <v>53</v>
       </c>
       <c r="E488" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2</v>
       </c>
@@ -9905,10 +9923,10 @@
         <v>53</v>
       </c>
       <c r="E489" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2</v>
       </c>
@@ -9922,10 +9940,10 @@
         <v>53</v>
       </c>
       <c r="E490" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2</v>
       </c>
@@ -9939,10 +9957,10 @@
         <v>53</v>
       </c>
       <c r="E491" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2</v>
       </c>
@@ -9956,10 +9974,10 @@
         <v>53</v>
       </c>
       <c r="E492" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2</v>
       </c>
@@ -9973,10 +9991,10 @@
         <v>53</v>
       </c>
       <c r="E493" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2</v>
       </c>
@@ -9990,10 +10008,10 @@
         <v>53</v>
       </c>
       <c r="E494" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2</v>
       </c>
@@ -10007,10 +10025,10 @@
         <v>53</v>
       </c>
       <c r="E495" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2</v>
       </c>
@@ -10024,10 +10042,10 @@
         <v>53</v>
       </c>
       <c r="E496" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2</v>
       </c>
@@ -10041,10 +10059,10 @@
         <v>53</v>
       </c>
       <c r="E497" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2</v>
       </c>
@@ -10058,10 +10076,10 @@
         <v>53</v>
       </c>
       <c r="E498" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2</v>
       </c>
@@ -10075,10 +10093,10 @@
         <v>53</v>
       </c>
       <c r="E499" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2</v>
       </c>
@@ -10092,10 +10110,10 @@
         <v>53</v>
       </c>
       <c r="E500" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -10109,10 +10127,10 @@
         <v>53</v>
       </c>
       <c r="E501" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2</v>
       </c>
@@ -10126,10 +10144,10 @@
         <v>53</v>
       </c>
       <c r="E502" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2</v>
       </c>
@@ -10143,10 +10161,10 @@
         <v>53</v>
       </c>
       <c r="E503" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2</v>
       </c>
@@ -10160,10 +10178,10 @@
         <v>53</v>
       </c>
       <c r="E504" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2</v>
       </c>
@@ -10177,10 +10195,10 @@
         <v>54</v>
       </c>
       <c r="E505" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2</v>
       </c>
@@ -10194,10 +10212,10 @@
         <v>54</v>
       </c>
       <c r="E506" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2</v>
       </c>
@@ -10211,10 +10229,10 @@
         <v>54</v>
       </c>
       <c r="E507" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2</v>
       </c>
@@ -10228,10 +10246,10 @@
         <v>54</v>
       </c>
       <c r="E508" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2</v>
       </c>
@@ -10245,10 +10263,10 @@
         <v>54</v>
       </c>
       <c r="E509" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2</v>
       </c>
@@ -10262,10 +10280,10 @@
         <v>54</v>
       </c>
       <c r="E510" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2</v>
       </c>
@@ -10279,10 +10297,10 @@
         <v>54</v>
       </c>
       <c r="E511" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2</v>
       </c>
@@ -10296,10 +10314,10 @@
         <v>54</v>
       </c>
       <c r="E512" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2</v>
       </c>
@@ -10313,10 +10331,10 @@
         <v>54</v>
       </c>
       <c r="E513" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2</v>
       </c>
@@ -10330,10 +10348,10 @@
         <v>54</v>
       </c>
       <c r="E514" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2</v>
       </c>
@@ -10347,10 +10365,10 @@
         <v>54</v>
       </c>
       <c r="E515" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2</v>
       </c>
@@ -10364,10 +10382,10 @@
         <v>54</v>
       </c>
       <c r="E516" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2</v>
       </c>
@@ -10381,10 +10399,10 @@
         <v>54</v>
       </c>
       <c r="E517" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2</v>
       </c>
@@ -10398,10 +10416,10 @@
         <v>54</v>
       </c>
       <c r="E518" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2</v>
       </c>
@@ -10415,10 +10433,10 @@
         <v>54</v>
       </c>
       <c r="E519" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2</v>
       </c>
@@ -10432,10 +10450,10 @@
         <v>54</v>
       </c>
       <c r="E520" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>2</v>
       </c>
@@ -10449,10 +10467,10 @@
         <v>54</v>
       </c>
       <c r="E521" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -10466,10 +10484,10 @@
         <v>54</v>
       </c>
       <c r="E522" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2</v>
       </c>
@@ -10483,10 +10501,10 @@
         <v>54</v>
       </c>
       <c r="E523" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>2</v>
       </c>
@@ -10500,10 +10518,10 @@
         <v>54</v>
       </c>
       <c r="E524" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>2</v>
       </c>
@@ -10517,10 +10535,10 @@
         <v>54</v>
       </c>
       <c r="E525" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>2</v>
       </c>
@@ -10534,10 +10552,10 @@
         <v>54</v>
       </c>
       <c r="E526" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>2</v>
       </c>
@@ -10551,10 +10569,10 @@
         <v>54</v>
       </c>
       <c r="E527" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2</v>
       </c>
@@ -10568,10 +10586,10 @@
         <v>54</v>
       </c>
       <c r="E528" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2</v>
       </c>
@@ -10585,7 +10603,7 @@
         <v>54</v>
       </c>
       <c r="E529" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
